--- a/data/trans_dic/P70B_R2_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R2_2023-Dificultad-trans_dic.xlsx
@@ -567,7 +567,7 @@
         <v>0.1345070050446067</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1872975906958509</v>
+        <v>0.1872975906958508</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.160410325730498</v>
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.08690695166500388</v>
+        <v>0.08431755493075539</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1370703892508251</v>
+        <v>0.1334257337803449</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1210560790262326</v>
+        <v>0.123289537699349</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2019292245857888</v>
+        <v>0.1955049207555736</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2429457986991142</v>
+        <v>0.2458633655625388</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2022269946952698</v>
+        <v>0.2051121948013055</v>
       </c>
     </row>
     <row r="7">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1669010727634789</v>
+        <v>0.1657308516090012</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.158740390405714</v>
+        <v>0.1580088761835736</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1735044420920889</v>
+        <v>0.1743088748707013</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2523622019227645</v>
+        <v>0.2535622167652036</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2352410596375136</v>
+        <v>0.2357829965027513</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2319931480500653</v>
+        <v>0.2335010600799998</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.1275950882129231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.1324096143857562</v>
+        <v>0.1324096143857563</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1072618102216389</v>
+        <v>0.1088600536697612</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1042781590379226</v>
+        <v>0.1012355197607659</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1142598491359596</v>
+        <v>0.112090251776894</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1700396543563159</v>
+        <v>0.1707471717124008</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1558213001828197</v>
+        <v>0.1580921705866797</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1535534999952481</v>
+        <v>0.1537045849608108</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.0819155194573673</v>
+        <v>0.0825752961291728</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08603381200333808</v>
+        <v>0.08623876391188663</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.09040700016353825</v>
+        <v>0.09187778145062017</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1437340533873508</v>
+        <v>0.1460357320721304</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1406218130077727</v>
+        <v>0.1412532382794255</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1321960670233912</v>
+        <v>0.1332190135552321</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1271788047335299</v>
+        <v>0.1282320393167042</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1288432320204689</v>
+        <v>0.1290920450822193</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.1338033289790863</v>
+        <v>0.1336249585270047</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1657634312932291</v>
+        <v>0.1656493789059315</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1627327934382636</v>
+        <v>0.1615548894467735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.1602497755979163</v>
+        <v>0.1596561491127857</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>15316</v>
+        <v>14860</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23273</v>
+        <v>22654</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>41888</v>
+        <v>42661</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>35587</v>
+        <v>34455</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>41249</v>
+        <v>41744</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>69975</v>
+        <v>70974</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>84468</v>
+        <v>83876</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>56933</v>
+        <v>56671</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>150039</v>
+        <v>150734</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>127720</v>
+        <v>128327</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>84371</v>
+        <v>84565</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>200617</v>
+        <v>201921</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>67129</v>
+        <v>68129</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>50791</v>
+        <v>49309</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>127161</v>
+        <v>124746</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>106417</v>
+        <v>106860</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>75896</v>
+        <v>77002</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>170891</v>
+        <v>171060</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>48394</v>
+        <v>48784</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>40135</v>
+        <v>40231</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>95586</v>
+        <v>97141</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>84916</v>
+        <v>86275</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>65601</v>
+        <v>65895</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>139769</v>
+        <v>140851</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>241507</v>
+        <v>243507</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>190949</v>
+        <v>191317</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>452386</v>
+        <v>451783</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>314777</v>
+        <v>314561</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>241174</v>
+        <v>239428</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>541801</v>
+        <v>539794</v>
       </c>
     </row>
     <row r="24">
